--- a/data/trans_orig/P42C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Dificultad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>144243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123412</v>
+        <v>123065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169804</v>
+        <v>169307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1715496107713683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1467744897504171</v>
+        <v>0.1463623765317666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2019493109888127</v>
+        <v>0.2013582585752758</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>696582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671021</v>
+        <v>671518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>717413</v>
+        <v>717760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8284503892286317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.798050689011186</v>
+        <v>0.7986417414247238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8532255102495828</v>
+        <v>0.8536376234682334</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>190537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166209</v>
+        <v>165847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219481</v>
+        <v>214807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2262846524061606</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1973927492085476</v>
+        <v>0.196962106018865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2606590626241568</v>
+        <v>0.2551081006326747</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>651487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>622543</v>
+        <v>627217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675815</v>
+        <v>676177</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7737153475938393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7393409373758432</v>
+        <v>0.7448918993673251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8026072507914521</v>
+        <v>0.8030378939811349</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>183890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161353</v>
+        <v>158704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208845</v>
+        <v>211250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2681729634955228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2353068415581738</v>
+        <v>0.2314423701023513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3045647867199205</v>
+        <v>0.3080731541775283</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>501825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>476870</v>
+        <v>474465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>524362</v>
+        <v>527011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7318270365044772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6954352132800795</v>
+        <v>0.691926845822472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7646931584418263</v>
+        <v>0.7685576298976488</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>134866</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114319</v>
+        <v>117696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152701</v>
+        <v>154540</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3748967621728855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3177810672192103</v>
+        <v>0.3271685550809747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4244725772717298</v>
+        <v>0.4295869387602557</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>224876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207041</v>
+        <v>205202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>245423</v>
+        <v>242046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6251032378271145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5755274227282703</v>
+        <v>0.5704130612397442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6822189327807896</v>
+        <v>0.6728314449190254</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>653536</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>606315</v>
+        <v>607026</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>703181</v>
+        <v>699827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.239539327452898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2222312477168732</v>
+        <v>0.2224918903625916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2577356321542648</v>
+        <v>0.256506087768244</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>2074769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2025124</v>
+        <v>2028478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2121990</v>
+        <v>2121279</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7604606725471019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7422643678457351</v>
+        <v>0.7434939122317559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7777687522831266</v>
+        <v>0.7775081096374084</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>61341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46552</v>
+        <v>48010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77363</v>
+        <v>80301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06356310999390351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04823846558189421</v>
+        <v>0.04974918196676392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08016634237453536</v>
+        <v>0.0832098519144107</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>903695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>887673</v>
+        <v>884735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>918484</v>
+        <v>917026</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9364368900060965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9198336576254644</v>
+        <v>0.9167901480855892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9517615344181058</v>
+        <v>0.950250818033236</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>127329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105293</v>
+        <v>106296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147226</v>
+        <v>149375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1584816976917285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1310544574730362</v>
+        <v>0.132303136147104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1832467727057693</v>
+        <v>0.1859217528819515</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>676100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>656203</v>
+        <v>654054</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>698136</v>
+        <v>697133</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8415183023082715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8167532272942309</v>
+        <v>0.8140782471180485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8689455425269639</v>
+        <v>0.8676968638528963</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>114034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97104</v>
+        <v>95114</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133751</v>
+        <v>133809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1880789820034439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1601560399472295</v>
+        <v>0.156873095540372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2205984510777101</v>
+        <v>0.22069356667409</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>492276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472559</v>
+        <v>472501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509206</v>
+        <v>511196</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.811921017996556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7794015489222899</v>
+        <v>0.7793064333259103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8398439600527704</v>
+        <v>0.8431269044596281</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>123750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105642</v>
+        <v>104372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145086</v>
+        <v>143373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3205487445333777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2736437758009875</v>
+        <v>0.2703545994714301</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3758154952710938</v>
+        <v>0.3713780100420422</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>262307</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240971</v>
+        <v>242684</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280415</v>
+        <v>281685</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6794512554666223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6241845047289063</v>
+        <v>0.6286219899579577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7263562241990125</v>
+        <v>0.72964540052857</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>426454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388316</v>
+        <v>388958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>462887</v>
+        <v>468671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1544656832315739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1406519578945844</v>
+        <v>0.1408843185621853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1676621804853577</v>
+        <v>0.1697570491605437</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>2334378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2297945</v>
+        <v>2292161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2372516</v>
+        <v>2371874</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8455343167684261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8323378195146423</v>
+        <v>0.8302429508394569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8593480421054153</v>
+        <v>0.8591156814378149</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>35989</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27475</v>
+        <v>26930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48118</v>
+        <v>47735</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1023380869023022</v>
+        <v>0.1023380869023023</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07812675720807866</v>
+        <v>0.076578579080535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.136827763849902</v>
+        <v>0.1357386614484595</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>315677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303548</v>
+        <v>303931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>324191</v>
+        <v>324736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8976619130976977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8631722361500975</v>
+        <v>0.8642613385515403</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9218732427919213</v>
+        <v>0.923421420919465</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>96901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81565</v>
+        <v>81608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115152</v>
+        <v>113911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1578656959066778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1328804832333158</v>
+        <v>0.1329509453362868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1875987139999054</v>
+        <v>0.1855775773633759</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>516918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498667</v>
+        <v>499908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>532254</v>
+        <v>532211</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8421343040933222</v>
+        <v>0.8421343040933224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8124012860000949</v>
+        <v>0.814422422636624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8671195167666846</v>
+        <v>0.8670490546637128</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>147978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131488</v>
+        <v>131249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166736</v>
+        <v>166487</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2558242406443564</v>
+        <v>0.2558242406443565</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2273162061566275</v>
+        <v>0.2269030425469863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2882529808893644</v>
+        <v>0.2878239653207887</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>430457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>411699</v>
+        <v>411948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446947</v>
+        <v>447186</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7441757593556437</v>
+        <v>0.7441757593556438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7117470191106356</v>
+        <v>0.7121760346792111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7726837938433725</v>
+        <v>0.7730969574530137</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>227240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>208433</v>
+        <v>206678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249154</v>
+        <v>247977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4187499669901644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3840930182139499</v>
+        <v>0.3808587820736212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4591323422363617</v>
+        <v>0.4569647478958516</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>315422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293508</v>
+        <v>294685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334229</v>
+        <v>335984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5812500330098357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5408676577636383</v>
+        <v>0.5430352521041487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.61590698178605</v>
+        <v>0.6191412179263789</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>508107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>474690</v>
+        <v>473334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>542935</v>
+        <v>542610</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2435118086614572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.22749631387835</v>
+        <v>0.2268464977982223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.26020313720249</v>
+        <v>0.2600475046104004</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>1578475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1543647</v>
+        <v>1543972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1611892</v>
+        <v>1613248</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7564881913385427</v>
+        <v>0.7564881913385426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7397968627975099</v>
+        <v>0.7399524953895994</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.77250368612165</v>
+        <v>0.7731535022017776</v>
       </c>
     </row>
     <row r="18">
